--- a/data/trans_orig/P04DS1-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P04DS1-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{516F56C2-E34C-421D-A970-396A50774976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{62E31759-EC1B-449B-8F23-0F4FD695C6C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D5E38984-2A0B-43B1-A055-B77265A6AD66}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5AE4ACA0-F8A0-4134-8155-9FB163180C46}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="435">
   <si>
     <t>Hogares según el tipo de calefacción que tiene la vivienda /respuesta 1 en 2012 (Tasa respuesta: 99,85%)</t>
   </si>
@@ -76,1254 +76,1245 @@
     <t>5,17%</t>
   </si>
   <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
   </si>
   <si>
     <t>5,66%</t>
   </si>
   <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>No tiene instalación de calefacción pero sí aparatos calefac</t>
+  </si>
+  <si>
+    <t>73,43%</t>
+  </si>
+  <si>
+    <t>70,34%</t>
+  </si>
+  <si>
+    <t>76,2%</t>
+  </si>
+  <si>
+    <t>72,09%</t>
+  </si>
+  <si>
+    <t>69,66%</t>
+  </si>
+  <si>
+    <t>74,71%</t>
+  </si>
+  <si>
+    <t>72,65%</t>
+  </si>
+  <si>
+    <t>70,57%</t>
+  </si>
+  <si>
+    <t>74,47%</t>
+  </si>
+  <si>
+    <t>Calefacción individual</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>Calefacción colectiva</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>61,38%</t>
+  </si>
+  <si>
+    <t>59,04%</t>
+  </si>
+  <si>
+    <t>63,57%</t>
+  </si>
+  <si>
+    <t>62,02%</t>
+  </si>
+  <si>
+    <t>59,39%</t>
+  </si>
+  <si>
+    <t>64,09%</t>
+  </si>
+  <si>
+    <t>61,68%</t>
+  </si>
+  <si>
+    <t>60,05%</t>
+  </si>
+  <si>
+    <t>63,43%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>48,67%</t>
+  </si>
+  <si>
+    <t>43,57%</t>
+  </si>
+  <si>
+    <t>53,41%</t>
+  </si>
+  <si>
+    <t>52,14%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>57,04%</t>
+  </si>
+  <si>
+    <t>50,36%</t>
+  </si>
+  <si>
+    <t>47,17%</t>
+  </si>
+  <si>
+    <t>53,87%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>47,99%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>45,22%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>44,78%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
     <t>4,4%</t>
   </si>
   <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>No tiene instalación de calefacción pero sí aparatos calefac</t>
-  </si>
-  <si>
-    <t>73,43%</t>
-  </si>
-  <si>
-    <t>70,35%</t>
-  </si>
-  <si>
-    <t>76,33%</t>
-  </si>
-  <si>
-    <t>72,09%</t>
-  </si>
-  <si>
-    <t>69,8%</t>
-  </si>
-  <si>
-    <t>74,69%</t>
-  </si>
-  <si>
-    <t>72,65%</t>
-  </si>
-  <si>
-    <t>70,67%</t>
-  </si>
-  <si>
-    <t>74,38%</t>
-  </si>
-  <si>
-    <t>Calefacción individual</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>Calefacción colectiva</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
   </si>
   <si>
     <t>4,84%</t>
   </si>
   <si>
-    <t>61,38%</t>
-  </si>
-  <si>
-    <t>59,2%</t>
-  </si>
-  <si>
-    <t>63,55%</t>
-  </si>
-  <si>
-    <t>62,02%</t>
-  </si>
-  <si>
-    <t>59,59%</t>
-  </si>
-  <si>
-    <t>64,3%</t>
-  </si>
-  <si>
-    <t>61,68%</t>
-  </si>
-  <si>
-    <t>59,99%</t>
-  </si>
-  <si>
-    <t>63,39%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>48,67%</t>
-  </si>
-  <si>
-    <t>44,0%</t>
-  </si>
-  <si>
-    <t>53,68%</t>
-  </si>
-  <si>
-    <t>52,14%</t>
-  </si>
-  <si>
-    <t>47,31%</t>
-  </si>
-  <si>
-    <t>57,07%</t>
-  </si>
-  <si>
-    <t>50,36%</t>
-  </si>
-  <si>
-    <t>47,15%</t>
-  </si>
-  <si>
-    <t>54,19%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>47,57%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
-  </si>
-  <si>
-    <t>44,86%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
+    <t>63,02%</t>
+  </si>
+  <si>
+    <t>61,33%</t>
+  </si>
+  <si>
+    <t>64,67%</t>
+  </si>
+  <si>
+    <t>64,54%</t>
+  </si>
+  <si>
+    <t>62,87%</t>
+  </si>
+  <si>
+    <t>66,2%</t>
+  </si>
+  <si>
+    <t>63,79%</t>
+  </si>
+  <si>
+    <t>62,62%</t>
+  </si>
+  <si>
+    <t>65,01%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Hogares según el tipo de calefacción que tiene la vivienda /respuesta 1 en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>60,82%</t>
+  </si>
+  <si>
+    <t>57,12%</t>
+  </si>
+  <si>
+    <t>64,47%</t>
+  </si>
+  <si>
+    <t>57,03%</t>
+  </si>
+  <si>
+    <t>53,66%</t>
+  </si>
+  <si>
+    <t>60,58%</t>
+  </si>
+  <si>
+    <t>58,66%</t>
+  </si>
+  <si>
+    <t>56,4%</t>
+  </si>
+  <si>
+    <t>61,05%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>51,54%</t>
+  </si>
+  <si>
+    <t>49,38%</t>
+  </si>
+  <si>
+    <t>53,65%</t>
+  </si>
+  <si>
+    <t>51,83%</t>
+  </si>
+  <si>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>54,14%</t>
+  </si>
+  <si>
+    <t>51,68%</t>
+  </si>
+  <si>
+    <t>50,16%</t>
+  </si>
+  <si>
+    <t>53,21%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>46,76%</t>
+  </si>
+  <si>
+    <t>42,33%</t>
+  </si>
+  <si>
+    <t>50,9%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>40,32%</t>
+  </si>
+  <si>
+    <t>48,54%</t>
+  </si>
+  <si>
+    <t>45,69%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>49,0%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>40,79%</t>
   </si>
   <si>
     <t>37,9%</t>
   </si>
   <si>
-    <t>44,71%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>63,02%</t>
-  </si>
-  <si>
-    <t>61,24%</t>
-  </si>
-  <si>
-    <t>64,65%</t>
-  </si>
-  <si>
-    <t>64,54%</t>
-  </si>
-  <si>
-    <t>62,78%</t>
-  </si>
-  <si>
-    <t>66,11%</t>
-  </si>
-  <si>
-    <t>63,79%</t>
-  </si>
-  <si>
-    <t>62,52%</t>
-  </si>
-  <si>
-    <t>65,03%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>42,08%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>40,66%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>52,84%</t>
+  </si>
+  <si>
+    <t>51,01%</t>
+  </si>
+  <si>
+    <t>54,58%</t>
+  </si>
+  <si>
+    <t>52,17%</t>
+  </si>
+  <si>
+    <t>50,38%</t>
+  </si>
+  <si>
+    <t>53,79%</t>
+  </si>
+  <si>
+    <t>52,5%</t>
+  </si>
+  <si>
+    <t>51,24%</t>
+  </si>
+  <si>
+    <t>53,72%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>Hogares según el tipo de calefacción que tiene la vivienda /respuesta 1 en 2023 (Tasa respuesta: 99,77%)</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>71,81%</t>
+  </si>
+  <si>
+    <t>68,07%</t>
+  </si>
+  <si>
+    <t>75,47%</t>
+  </si>
+  <si>
+    <t>75,75%</t>
+  </si>
+  <si>
+    <t>73,22%</t>
+  </si>
+  <si>
+    <t>78,05%</t>
+  </si>
+  <si>
+    <t>74,21%</t>
+  </si>
+  <si>
+    <t>72,06%</t>
+  </si>
+  <si>
+    <t>76,28%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
   </si>
   <si>
     <t>3,82%</t>
   </si>
   <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Hogares según el tipo de calefacción que tiene la vivienda /respuesta 1 en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>60,82%</t>
-  </si>
-  <si>
-    <t>57,54%</t>
-  </si>
-  <si>
-    <t>64,28%</t>
-  </si>
-  <si>
-    <t>57,03%</t>
-  </si>
-  <si>
-    <t>53,69%</t>
-  </si>
-  <si>
-    <t>60,12%</t>
-  </si>
-  <si>
-    <t>58,66%</t>
-  </si>
-  <si>
-    <t>56,1%</t>
-  </si>
-  <si>
-    <t>60,74%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>51,54%</t>
-  </si>
-  <si>
-    <t>49,37%</t>
-  </si>
-  <si>
-    <t>53,91%</t>
-  </si>
-  <si>
-    <t>51,83%</t>
-  </si>
-  <si>
-    <t>49,6%</t>
-  </si>
-  <si>
-    <t>54,09%</t>
-  </si>
-  <si>
-    <t>51,68%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
-  </si>
-  <si>
-    <t>53,18%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>46,76%</t>
-  </si>
-  <si>
-    <t>42,41%</t>
-  </si>
-  <si>
-    <t>50,87%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>40,09%</t>
-  </si>
-  <si>
-    <t>48,86%</t>
-  </si>
-  <si>
-    <t>45,69%</t>
-  </si>
-  <si>
-    <t>42,76%</t>
-  </si>
-  <si>
-    <t>48,93%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>41,16%</t>
-  </si>
-  <si>
-    <t>42,07%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>40,3%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>65,99%</t>
+  </si>
+  <si>
+    <t>60,83%</t>
+  </si>
+  <si>
+    <t>68,93%</t>
+  </si>
+  <si>
+    <t>69,35%</t>
+  </si>
+  <si>
+    <t>66,73%</t>
+  </si>
+  <si>
+    <t>74,06%</t>
+  </si>
+  <si>
+    <t>67,7%</t>
+  </si>
+  <si>
+    <t>64,93%</t>
+  </si>
+  <si>
+    <t>70,39%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>54,03%</t>
+  </si>
+  <si>
+    <t>50,4%</t>
+  </si>
+  <si>
+    <t>58,13%</t>
+  </si>
+  <si>
+    <t>50,13%</t>
+  </si>
+  <si>
+    <t>46,32%</t>
+  </si>
+  <si>
+    <t>53,14%</t>
+  </si>
+  <si>
+    <t>52,03%</t>
+  </si>
+  <si>
+    <t>49,44%</t>
+  </si>
+  <si>
+    <t>54,86%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>64,53%</t>
+  </si>
+  <si>
+    <t>61,29%</t>
+  </si>
+  <si>
+    <t>66,61%</t>
+  </si>
+  <si>
+    <t>67,15%</t>
+  </si>
+  <si>
+    <t>65,32%</t>
+  </si>
+  <si>
+    <t>70,5%</t>
+  </si>
+  <si>
+    <t>65,92%</t>
+  </si>
+  <si>
+    <t>63,91%</t>
+  </si>
+  <si>
+    <t>67,62%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
   </si>
   <si>
     <t>15,91%</t>
   </si>
   <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>52,84%</t>
-  </si>
-  <si>
-    <t>51,05%</t>
-  </si>
-  <si>
-    <t>54,54%</t>
-  </si>
-  <si>
-    <t>52,17%</t>
-  </si>
-  <si>
-    <t>50,54%</t>
-  </si>
-  <si>
-    <t>54,06%</t>
-  </si>
-  <si>
-    <t>52,5%</t>
-  </si>
-  <si>
-    <t>51,16%</t>
-  </si>
-  <si>
-    <t>53,71%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>Hogares según el tipo de calefacción que tiene la vivienda /respuesta 1 en 2023 (Tasa respuesta: 99,77%)</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>71,81%</t>
-  </si>
-  <si>
-    <t>68,07%</t>
-  </si>
-  <si>
-    <t>75,47%</t>
-  </si>
-  <si>
-    <t>75,75%</t>
-  </si>
-  <si>
-    <t>73,22%</t>
-  </si>
-  <si>
-    <t>78,05%</t>
-  </si>
-  <si>
-    <t>74,21%</t>
-  </si>
-  <si>
-    <t>72,06%</t>
-  </si>
-  <si>
-    <t>76,28%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>65,99%</t>
-  </si>
-  <si>
-    <t>60,83%</t>
-  </si>
-  <si>
-    <t>68,93%</t>
-  </si>
-  <si>
-    <t>69,35%</t>
-  </si>
-  <si>
-    <t>66,73%</t>
-  </si>
-  <si>
-    <t>74,06%</t>
-  </si>
-  <si>
-    <t>67,7%</t>
-  </si>
-  <si>
-    <t>64,93%</t>
-  </si>
-  <si>
-    <t>70,39%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>54,03%</t>
-  </si>
-  <si>
-    <t>50,4%</t>
-  </si>
-  <si>
-    <t>58,13%</t>
-  </si>
-  <si>
-    <t>50,13%</t>
-  </si>
-  <si>
-    <t>46,32%</t>
-  </si>
-  <si>
-    <t>53,14%</t>
-  </si>
-  <si>
-    <t>52,03%</t>
-  </si>
-  <si>
-    <t>49,44%</t>
-  </si>
-  <si>
-    <t>54,86%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>64,53%</t>
-  </si>
-  <si>
-    <t>61,29%</t>
-  </si>
-  <si>
-    <t>66,61%</t>
-  </si>
-  <si>
-    <t>67,15%</t>
-  </si>
-  <si>
-    <t>65,32%</t>
-  </si>
-  <si>
-    <t>70,5%</t>
-  </si>
-  <si>
-    <t>65,92%</t>
-  </si>
-  <si>
-    <t>63,91%</t>
-  </si>
-  <si>
-    <t>67,62%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
     <t>14,38%</t>
   </si>
   <si>
-    <t>17,2%</t>
-  </si>
-  <si>
     <t>17,32%</t>
   </si>
   <si>
@@ -1346,9 +1337,6 @@
   </si>
   <si>
     <t>5,33%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
   </si>
   <si>
     <t>5,51%</t>
@@ -1766,7 +1754,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC95BBED-18CF-4DB7-9E91-605BC0E07742}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B206EF2-CDC2-4C2F-A66B-FE4EE75AA3BE}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2165,10 +2153,10 @@
         <v>55</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>138</v>
@@ -2177,13 +2165,13 @@
         <v>153292</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2198,13 +2186,13 @@
         <v>1202230</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>1003</v>
@@ -2213,13 +2201,13 @@
         <v>1087583</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>2143</v>
@@ -2228,13 +2216,13 @@
         <v>2289813</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2249,13 +2237,13 @@
         <v>609890</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>518</v>
@@ -2264,13 +2252,13 @@
         <v>545880</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>1094</v>
@@ -2279,13 +2267,13 @@
         <v>1155770</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2300,13 +2288,13 @@
         <v>66804</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H12" s="7">
         <v>44</v>
@@ -2315,13 +2303,13 @@
         <v>46725</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M12" s="7">
         <v>108</v>
@@ -2330,13 +2318,13 @@
         <v>113529</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2392,7 +2380,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2404,13 +2392,13 @@
         <v>11899</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>9</v>
@@ -2419,10 +2407,10 @@
         <v>10387</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>92</v>
@@ -2661,13 +2649,13 @@
         <v>142116</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H19" s="7">
         <v>146</v>
@@ -2676,13 +2664,13 @@
         <v>159575</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="M19" s="7">
         <v>277</v>
@@ -2691,13 +2679,13 @@
         <v>301691</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2925,7 +2913,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBF8B0B7-3291-4EE0-B0E2-1436EE80174C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AF24A08-6ACE-4FAE-B41D-2931BDAB9490}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3441,10 +3429,10 @@
         <v>219</v>
       </c>
       <c r="P11" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3459,13 +3447,13 @@
         <v>48295</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="H12" s="7">
         <v>36</v>
@@ -3480,7 +3468,7 @@
         <v>225</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>226</v>
+        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>82</v>
@@ -3489,13 +3477,13 @@
         <v>85521</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3551,7 +3539,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -3563,13 +3551,13 @@
         <v>48650</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="H14" s="7">
         <v>55</v>
@@ -3578,13 +3566,13 @@
         <v>57798</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="M14" s="7">
         <v>98</v>
@@ -3593,13 +3581,13 @@
         <v>106448</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3614,13 +3602,13 @@
         <v>255739</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="H15" s="7">
         <v>240</v>
@@ -3629,13 +3617,13 @@
         <v>245082</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="M15" s="7">
         <v>473</v>
@@ -3644,13 +3632,13 @@
         <v>500821</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3665,13 +3653,13 @@
         <v>200509</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="H16" s="7">
         <v>194</v>
@@ -3680,13 +3668,13 @@
         <v>208139</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>112</v>
+        <v>250</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>221</v>
+        <v>251</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M16" s="7">
         <v>379</v>
@@ -3695,13 +3683,13 @@
         <v>408648</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3716,13 +3704,13 @@
         <v>41989</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H17" s="7">
         <v>37</v>
@@ -3731,13 +3719,13 @@
         <v>38121</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M17" s="7">
         <v>77</v>
@@ -3746,13 +3734,13 @@
         <v>80110</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3820,13 +3808,13 @@
         <v>532522</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H19" s="7">
         <v>483</v>
@@ -3835,13 +3823,13 @@
         <v>511424</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M19" s="7">
         <v>969</v>
@@ -3850,13 +3838,13 @@
         <v>1043946</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>203</v>
+        <v>271</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3871,13 +3859,13 @@
         <v>1784663</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="H20" s="7">
         <v>1748</v>
@@ -3886,13 +3874,13 @@
         <v>1842802</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="M20" s="7">
         <v>3474</v>
@@ -3901,13 +3889,13 @@
         <v>3627465</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3922,13 +3910,13 @@
         <v>966326</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>281</v>
+        <v>214</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H21" s="7">
         <v>1011</v>
@@ -3937,13 +3925,13 @@
         <v>1089921</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M21" s="7">
         <v>1924</v>
@@ -3952,13 +3940,13 @@
         <v>2056247</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3973,13 +3961,13 @@
         <v>94107</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H22" s="7">
         <v>84</v>
@@ -3988,10 +3976,10 @@
         <v>87953</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>294</v>
+        <v>82</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>295</v>
@@ -4009,7 +3997,7 @@
         <v>297</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4084,7 +4072,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52856FB3-53F1-4528-845D-6DAA925093D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8811C89-3A13-48D8-BCC3-750551E76A75}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4101,7 +4089,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4208,13 +4196,13 @@
         <v>67922</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="H4" s="7">
         <v>166</v>
@@ -4223,13 +4211,13 @@
         <v>100054</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>305</v>
       </c>
       <c r="M4" s="7">
         <v>248</v>
@@ -4238,13 +4226,13 @@
         <v>167976</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4259,13 +4247,13 @@
         <v>387454</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>311</v>
       </c>
       <c r="H5" s="7">
         <v>1083</v>
@@ -4274,13 +4262,13 @@
         <v>632737</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>314</v>
       </c>
       <c r="M5" s="7">
         <v>1584</v>
@@ -4289,13 +4277,13 @@
         <v>1020190</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4310,13 +4298,13 @@
         <v>66005</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>320</v>
       </c>
       <c r="H6" s="7">
         <v>134</v>
@@ -4325,13 +4313,13 @@
         <v>79575</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>323</v>
       </c>
       <c r="M6" s="7">
         <v>214</v>
@@ -4340,13 +4328,13 @@
         <v>145580</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4361,13 +4349,13 @@
         <v>18180</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>329</v>
       </c>
       <c r="H7" s="7">
         <v>43</v>
@@ -4376,13 +4364,13 @@
         <v>22888</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="K7" s="7" t="s">
-        <v>331</v>
-      </c>
       <c r="L7" s="7" t="s">
-        <v>332</v>
+        <v>86</v>
       </c>
       <c r="M7" s="7">
         <v>69</v>
@@ -4391,13 +4379,13 @@
         <v>41068</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>150</v>
+        <v>332</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4465,13 +4453,13 @@
         <v>227514</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>336</v>
       </c>
       <c r="H9" s="7">
         <v>344</v>
@@ -4480,13 +4468,13 @@
         <v>237940</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>339</v>
       </c>
       <c r="M9" s="7">
         <v>566</v>
@@ -4495,13 +4483,13 @@
         <v>465453</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4516,13 +4504,13 @@
         <v>1423815</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>345</v>
       </c>
       <c r="H10" s="7">
         <v>1951</v>
@@ -4531,13 +4519,13 @@
         <v>1555909</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>348</v>
       </c>
       <c r="M10" s="7">
         <v>3292</v>
@@ -4546,13 +4534,13 @@
         <v>2979723</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4567,13 +4555,13 @@
         <v>403728</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>354</v>
       </c>
       <c r="H11" s="7">
         <v>466</v>
@@ -4582,13 +4570,13 @@
         <v>339348</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>357</v>
       </c>
       <c r="M11" s="7">
         <v>786</v>
@@ -4597,13 +4585,13 @@
         <v>743076</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4618,13 +4606,13 @@
         <v>102524</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>361</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>363</v>
       </c>
       <c r="H12" s="7">
         <v>153</v>
@@ -4633,13 +4621,13 @@
         <v>110511</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>366</v>
       </c>
       <c r="M12" s="7">
         <v>257</v>
@@ -4648,13 +4636,13 @@
         <v>213035</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4710,7 +4698,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -4722,13 +4710,13 @@
         <v>58151</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>371</v>
       </c>
       <c r="H14" s="7">
         <v>101</v>
@@ -4737,13 +4725,13 @@
         <v>73358</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>374</v>
       </c>
       <c r="M14" s="7">
         <v>163</v>
@@ -4752,13 +4740,13 @@
         <v>131509</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4773,13 +4761,13 @@
         <v>363661</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>380</v>
       </c>
       <c r="H15" s="7">
         <v>505</v>
@@ -4788,13 +4776,13 @@
         <v>356725</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>383</v>
       </c>
       <c r="M15" s="7">
         <v>860</v>
@@ -4803,13 +4791,13 @@
         <v>720385</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>384</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4824,13 +4812,13 @@
         <v>167172</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>389</v>
       </c>
       <c r="H16" s="7">
         <v>258</v>
@@ -4839,13 +4827,13 @@
         <v>184123</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>390</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>392</v>
       </c>
       <c r="M16" s="7">
         <v>429</v>
@@ -4854,13 +4842,13 @@
         <v>351295</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>395</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4875,13 +4863,13 @@
         <v>84055</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="H17" s="7">
         <v>136</v>
@@ -4890,13 +4878,13 @@
         <v>97360</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="M17" s="7">
         <v>229</v>
@@ -4905,13 +4893,13 @@
         <v>181416</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4979,13 +4967,13 @@
         <v>353586</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="H19" s="7">
         <v>611</v>
@@ -4994,13 +4982,13 @@
         <v>411352</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="M19" s="7">
         <v>977</v>
@@ -5009,13 +4997,13 @@
         <v>764938</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5030,13 +5018,13 @@
         <v>2174929</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="H20" s="7">
         <v>3539</v>
@@ -5045,13 +5033,13 @@
         <v>2545370</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="M20" s="7">
         <v>5736</v>
@@ -5060,13 +5048,13 @@
         <v>4720299</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5081,13 +5069,13 @@
         <v>636905</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="H21" s="7">
         <v>858</v>
@@ -5096,13 +5084,13 @@
         <v>603046</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>269</v>
+        <v>423</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>427</v>
+        <v>267</v>
       </c>
       <c r="M21" s="7">
         <v>1429</v>
@@ -5111,13 +5099,13 @@
         <v>1239950</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5132,13 +5120,13 @@
         <v>204759</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H22" s="7">
         <v>332</v>
@@ -5147,13 +5135,13 @@
         <v>230760</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>436</v>
+        <v>13</v>
       </c>
       <c r="M22" s="7">
         <v>555</v>
@@ -5162,13 +5150,13 @@
         <v>435519</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
